--- a/data/trans_orig/P43C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1228F099-4C01-4069-ADB0-B3610BDC21A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C6A6E0-8ADF-48A6-A0CE-DBD48E6EF758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{926FC708-F0E1-47B9-AAF1-D201B11E6DC2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D8E5789-02C9-42BA-A5D0-6038776F762B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="229">
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2007 (Tasa respuesta: 49,87%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>57,44%</t>
   </si>
   <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>42,56%</t>
   </si>
   <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>54,63%</t>
   </si>
   <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
   </si>
   <si>
     <t>45,37%</t>
   </si>
   <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -128,19 +128,19 @@
     <t>56,74%</t>
   </si>
   <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
   </si>
   <si>
     <t>43,26%</t>
   </si>
   <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -149,19 +149,19 @@
     <t>56,55%</t>
   </si>
   <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
   </si>
   <si>
     <t>43,45%</t>
   </si>
   <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -170,19 +170,19 @@
     <t>41,78%</t>
   </si>
   <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
   </si>
   <si>
     <t>58,22%</t>
   </si>
   <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -191,19 +191,19 @@
     <t>46,35%</t>
   </si>
   <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
   </si>
   <si>
     <t>53,65%</t>
   </si>
   <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -212,19 +212,19 @@
     <t>63,51%</t>
   </si>
   <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
   </si>
   <si>
     <t>36,49%</t>
   </si>
   <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -233,37 +233,37 @@
     <t>47,27%</t>
   </si>
   <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
   </si>
   <si>
     <t>52,73%</t>
   </si>
   <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
   </si>
   <si>
     <t>53,81%</t>
   </si>
   <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -416,157 +416,151 @@
     <t>71,38%</t>
   </si>
   <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
   </si>
   <si>
     <t>73,81%</t>
   </si>
   <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
   </si>
   <si>
     <t>78,78%</t>
   </si>
   <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>69,9%</t>
   </si>
   <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
   </si>
   <si>
     <t>30,1%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
   </si>
   <si>
     <t>43,89%</t>
   </si>
   <si>
-    <t>37,43%</t>
+    <t>50,29%</t>
   </si>
   <si>
     <t>56,11%</t>
   </si>
   <si>
-    <t>62,57%</t>
+    <t>49,71%</t>
   </si>
   <si>
     <t>23,2%</t>
   </si>
   <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
   </si>
   <si>
     <t>76,8%</t>
   </si>
   <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
   </si>
   <si>
     <t>61,96%</t>
   </si>
   <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
   </si>
   <si>
     <t>38,04%</t>
   </si>
   <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
   </si>
   <si>
     <t>66,65%</t>
   </si>
   <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
   </si>
   <si>
     <t>33,35%</t>
   </si>
   <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
   </si>
   <si>
     <t>63,94%</t>
   </si>
   <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
+    <t>62,2%</t>
   </si>
   <si>
     <t>36,06%</t>
   </si>
   <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
+    <t>37,8%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
@@ -575,73 +569,73 @@
     <t>91,63%</t>
   </si>
   <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>8,37%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>58,55%</t>
   </si>
   <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
   </si>
   <si>
     <t>41,45%</t>
   </si>
   <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
   </si>
   <si>
     <t>62,46%</t>
   </si>
   <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
   </si>
   <si>
     <t>37,54%</t>
   </si>
   <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
   </si>
   <si>
     <t>69,39%</t>
   </si>
   <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
   </si>
   <si>
     <t>30,61%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
   </si>
   <si>
     <t>39,17%</t>
@@ -650,13 +644,13 @@
     <t>34,02%</t>
   </si>
   <si>
-    <t>44,73%</t>
+    <t>44,67%</t>
   </si>
   <si>
     <t>60,83%</t>
   </si>
   <si>
-    <t>55,27%</t>
+    <t>55,33%</t>
   </si>
   <si>
     <t>65,98%</t>
@@ -665,73 +659,73 @@
     <t>41,25%</t>
   </si>
   <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
   </si>
   <si>
     <t>58,75%</t>
   </si>
   <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
   </si>
   <si>
     <t>60,5%</t>
   </si>
   <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
   </si>
   <si>
     <t>39,5%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
   </si>
   <si>
     <t>41,36%</t>
   </si>
   <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
   </si>
   <si>
     <t>58,64%</t>
   </si>
   <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B9CB3E-DD74-418C-9806-00AB7881C88D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47E2F40-0F0D-4EB6-B191-236A114737DD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2620,7 +2614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4573E20-6736-4606-8D4A-2050CB56C0A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5C9445-18C0-4294-9129-10D934066A21}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4085,7 +4079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289F428E-EF03-4BE4-9872-AD1DF6F5EDCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12448D9E-5D9A-4F4C-9662-233388D770CD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4821,10 +4815,10 @@
         <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -4836,10 +4830,10 @@
         <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,10 +4864,10 @@
         <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -4885,10 +4879,10 @@
         <v>150</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,7 +5414,7 @@
         <v>171</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="M28" s="7">
         <v>2123</v>
@@ -5435,7 +5429,7 @@
         <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5457,13 @@
         <v>1264446</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>1180</v>
@@ -5478,13 +5472,13 @@
         <v>1264446</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,7 +5556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF79D3DB-A892-4439-9837-2F8361F882A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDA86AB-9651-4260-A76D-B15E067DC09C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5579,7 +5573,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5699,13 +5693,13 @@
         <v>159937</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>323</v>
@@ -5714,13 +5708,13 @@
         <v>159937</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,13 +5742,13 @@
         <v>14609</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -5763,13 +5757,13 @@
         <v>14609</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5842,13 @@
         <v>250498</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>325</v>
@@ -5863,13 +5857,13 @@
         <v>250498</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5891,13 @@
         <v>177320</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>222</v>
@@ -5912,13 +5906,13 @@
         <v>177320</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +5991,13 @@
         <v>166825</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>255</v>
@@ -6012,13 +6006,13 @@
         <v>166825</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,31 +6037,31 @@
         <v>129</v>
       </c>
       <c r="I11" s="7">
-        <v>100281</v>
+        <v>100280</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>129</v>
       </c>
       <c r="N11" s="7">
-        <v>100281</v>
+        <v>100280</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,7 +6086,7 @@
         <v>384</v>
       </c>
       <c r="I12" s="7">
-        <v>267106</v>
+        <v>267105</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -6107,7 +6101,7 @@
         <v>384</v>
       </c>
       <c r="N12" s="7">
-        <v>267106</v>
+        <v>267105</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -6146,13 +6140,13 @@
         <v>227301</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>316</v>
@@ -6161,13 +6155,13 @@
         <v>227301</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6189,13 @@
         <v>100259</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>138</v>
@@ -6210,13 +6204,13 @@
         <v>100259</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6289,13 @@
         <v>65302</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
@@ -6310,13 +6304,13 @@
         <v>65302</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6338,13 @@
         <v>101421</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
@@ -6359,13 +6353,13 @@
         <v>101421</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6438,13 @@
         <v>92387</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>168</v>
@@ -6459,13 +6453,13 @@
         <v>92387</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6487,13 @@
         <v>131557</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M20" s="7">
         <v>209</v>
@@ -6508,13 +6502,13 @@
         <v>131557</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6587,13 @@
         <v>361700</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M22" s="7">
         <v>509</v>
@@ -6608,13 +6602,13 @@
         <v>361700</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6636,13 @@
         <v>236121</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M23" s="7">
         <v>161</v>
@@ -6657,13 +6651,13 @@
         <v>236121</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6736,13 @@
         <v>289266</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M25" s="7">
         <v>367</v>
@@ -6757,13 +6751,13 @@
         <v>289266</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6785,13 @@
         <v>410122</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M26" s="7">
         <v>482</v>
@@ -6806,13 +6800,13 @@
         <v>410122</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6885,13 @@
         <v>1613216</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M28" s="7">
         <v>2420</v>
@@ -6906,13 +6900,13 @@
         <v>1613216</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6934,13 @@
         <v>1271690</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M29" s="7">
         <v>1568</v>
@@ -6955,13 +6949,13 @@
         <v>1271690</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C6A6E0-8ADF-48A6-A0CE-DBD48E6EF758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A0D184B-5386-424D-BABC-9D1FEA5CDD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D8E5789-02C9-42BA-A5D0-6038776F762B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C398E3E7-3AB8-4D02-A7CC-036FC780772D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="233">
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2007 (Tasa respuesta: 49,87%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>57,44%</t>
   </si>
   <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>42,56%</t>
   </si>
   <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>54,63%</t>
   </si>
   <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
   </si>
   <si>
     <t>45,37%</t>
   </si>
   <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -128,19 +128,19 @@
     <t>56,74%</t>
   </si>
   <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
   </si>
   <si>
     <t>43,26%</t>
   </si>
   <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -149,19 +149,19 @@
     <t>56,55%</t>
   </si>
   <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
   </si>
   <si>
     <t>43,45%</t>
   </si>
   <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -170,19 +170,19 @@
     <t>41,78%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
   </si>
   <si>
     <t>58,22%</t>
   </si>
   <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -191,19 +191,19 @@
     <t>46,35%</t>
   </si>
   <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
   </si>
   <si>
     <t>53,65%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -212,19 +212,19 @@
     <t>63,51%</t>
   </si>
   <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
   </si>
   <si>
     <t>36,49%</t>
   </si>
   <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -233,37 +233,31 @@
     <t>47,27%</t>
   </si>
   <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
+    <t>50,87%</t>
   </si>
   <si>
     <t>52,73%</t>
   </si>
   <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
+    <t>49,13%</t>
   </si>
   <si>
     <t>53,81%</t>
   </si>
   <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -275,103 +269,109 @@
     <t>73,13%</t>
   </si>
   <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
   </si>
   <si>
     <t>26,87%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
   </si>
   <si>
     <t>56,63%</t>
   </si>
   <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
   </si>
   <si>
     <t>43,37%</t>
   </si>
   <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
   </si>
   <si>
     <t>69,06%</t>
   </si>
   <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>30,94%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
   </si>
   <si>
     <t>63,12%</t>
   </si>
   <si>
-    <t>69,55%</t>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
   </si>
   <si>
     <t>36,88%</t>
   </si>
   <si>
-    <t>30,45%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
   </si>
   <si>
     <t>54,49%</t>
   </si>
   <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
   </si>
   <si>
     <t>45,51%</t>
   </si>
   <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
   </si>
   <si>
     <t>63,72%</t>
   </si>
   <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
   </si>
   <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
   </si>
   <si>
     <t>65,6%</t>
@@ -380,13 +380,13 @@
     <t>62,03%</t>
   </si>
   <si>
-    <t>69,11%</t>
+    <t>68,82%</t>
   </si>
   <si>
     <t>34,4%</t>
   </si>
   <si>
-    <t>30,89%</t>
+    <t>31,18%</t>
   </si>
   <si>
     <t>37,97%</t>
@@ -395,172 +395,184 @@
     <t>65,1%</t>
   </si>
   <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>Población según si alguna vez le han realizado una citología vaginal en 2015 (Tasa respuesta: 50,28%)</t>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>Población según si alguna vez le han realizado una citología vaginal en 2016 (Tasa respuesta: 50,28%)</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
   </si>
   <si>
     <t>73,81%</t>
   </si>
   <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>78,78%</t>
   </si>
   <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>69,9%</t>
   </si>
   <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>30,1%</t>
   </si>
   <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
   </si>
   <si>
     <t>43,89%</t>
   </si>
   <si>
-    <t>50,29%</t>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
   </si>
   <si>
     <t>56,11%</t>
   </si>
   <si>
-    <t>49,71%</t>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
   </si>
   <si>
     <t>23,2%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
   </si>
   <si>
     <t>76,8%</t>
   </si>
   <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
   </si>
   <si>
     <t>61,96%</t>
   </si>
   <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
   </si>
   <si>
     <t>38,04%</t>
   </si>
   <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
   </si>
   <si>
     <t>66,65%</t>
   </si>
   <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
   </si>
   <si>
     <t>33,35%</t>
   </si>
   <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
   </si>
   <si>
     <t>63,94%</t>
   </si>
   <si>
-    <t>62,2%</t>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
   </si>
   <si>
     <t>36,06%</t>
   </si>
   <si>
-    <t>37,8%</t>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
@@ -1137,7 +1149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47E2F40-0F0D-4EB6-B191-236A114737DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594F8457-3EAC-4A1E-BE41-F836E8208E98}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2320,10 +2332,10 @@
         <v>63</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M25" s="7">
         <v>339</v>
@@ -2335,10 +2347,10 @@
         <v>63</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,13 +2378,13 @@
         <v>401156</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="M26" s="7">
         <v>384</v>
@@ -2381,13 +2393,13 @@
         <v>401156</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,13 +2478,13 @@
         <v>1790349</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M28" s="7">
         <v>1742</v>
@@ -2481,13 +2493,13 @@
         <v>1790349</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2527,13 @@
         <v>1536701</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M29" s="7">
         <v>1505</v>
@@ -2530,13 +2542,13 @@
         <v>1536701</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,7 +2602,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2614,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5C9445-18C0-4294-9129-10D934066A21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFEC524-EBEC-4380-BCB4-1D049A65CE65}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2631,7 +2643,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2888,13 +2900,13 @@
         <v>379281</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>345</v>
@@ -2903,13 +2915,13 @@
         <v>379281</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,13 +2949,13 @@
         <v>139334</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>130</v>
@@ -2952,13 +2964,13 @@
         <v>139334</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3049,13 @@
         <v>192571</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>176</v>
@@ -3052,13 +3064,13 @@
         <v>192571</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3098,13 @@
         <v>147463</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>140</v>
@@ -3101,13 +3113,13 @@
         <v>147463</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3198,13 @@
         <v>461163</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>424</v>
@@ -3201,13 +3213,13 @@
         <v>461163</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3247,13 @@
         <v>206647</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>195</v>
@@ -3250,13 +3262,13 @@
         <v>206647</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3347,13 @@
         <v>136664</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -3350,13 +3362,13 @@
         <v>136664</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,13 +3396,13 @@
         <v>79834</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>78</v>
@@ -3399,13 +3411,13 @@
         <v>79834</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,7 +3989,7 @@
         <v>1157</v>
       </c>
       <c r="I29" s="7">
-        <v>1229378</v>
+        <v>1229377</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>120</v>
@@ -3992,7 +4004,7 @@
         <v>1157</v>
       </c>
       <c r="N29" s="7">
-        <v>1229378</v>
+        <v>1229377</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>120</v>
@@ -4026,7 +4038,7 @@
         <v>3264</v>
       </c>
       <c r="I30" s="7">
-        <v>3522354</v>
+        <v>3522353</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -4041,7 +4053,7 @@
         <v>3264</v>
       </c>
       <c r="N30" s="7">
-        <v>3522354</v>
+        <v>3522353</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -4055,7 +4067,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4079,7 +4091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12448D9E-5D9A-4F4C-9662-233388D770CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A1984F-B3E5-4025-B255-DF1C5F895702}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4815,10 +4827,10 @@
         <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -4830,10 +4842,10 @@
         <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4873,13 @@
         <v>121040</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -4876,13 +4888,13 @@
         <v>121040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4973,13 @@
         <v>62742</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -4976,13 +4988,13 @@
         <v>62742</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5022,13 @@
         <v>207735</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>199</v>
@@ -5025,13 +5037,13 @@
         <v>207735</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5122,13 @@
         <v>420196</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M22" s="7">
         <v>394</v>
@@ -5125,13 +5137,13 @@
         <v>420196</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5171,13 @@
         <v>258007</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>240</v>
@@ -5174,13 +5186,13 @@
         <v>258007</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5271,13 @@
         <v>546503</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>503</v>
@@ -5274,13 +5286,13 @@
         <v>546503</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5320,13 @@
         <v>273480</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>246</v>
@@ -5323,13 +5335,13 @@
         <v>273480</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5420,13 @@
         <v>2242226</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>2123</v>
@@ -5423,13 +5435,13 @@
         <v>2242226</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5469,13 @@
         <v>1264446</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>1180</v>
@@ -5472,13 +5484,13 @@
         <v>1264446</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,7 +5544,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5556,7 +5568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDA86AB-9651-4260-A76D-B15E067DC09C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB6BCC5-AB75-49C0-AAD7-A9DD05A9E2F0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5573,7 +5585,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5693,13 +5705,13 @@
         <v>159937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>323</v>
@@ -5708,13 +5720,13 @@
         <v>159937</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5754,13 @@
         <v>14609</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -5757,13 +5769,13 @@
         <v>14609</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5854,13 @@
         <v>250498</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>325</v>
@@ -5857,13 +5869,13 @@
         <v>250498</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5903,13 @@
         <v>177320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>222</v>
@@ -5906,13 +5918,13 @@
         <v>177320</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +6003,13 @@
         <v>166825</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>255</v>
@@ -6006,13 +6018,13 @@
         <v>166825</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,13 +6052,13 @@
         <v>100280</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>129</v>
@@ -6055,13 +6067,13 @@
         <v>100280</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6152,13 @@
         <v>227301</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>316</v>
@@ -6155,13 +6167,13 @@
         <v>227301</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6201,13 @@
         <v>100259</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>138</v>
@@ -6204,13 +6216,13 @@
         <v>100259</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6301,13 @@
         <v>65302</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
@@ -6304,13 +6316,13 @@
         <v>65302</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6350,13 @@
         <v>101421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
@@ -6353,13 +6365,13 @@
         <v>101421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6450,13 @@
         <v>92387</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>168</v>
@@ -6453,13 +6465,13 @@
         <v>92387</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,13 +6499,13 @@
         <v>131557</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>209</v>
@@ -6502,13 +6514,13 @@
         <v>131557</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6599,13 @@
         <v>361700</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M22" s="7">
         <v>509</v>
@@ -6602,13 +6614,13 @@
         <v>361700</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,13 +6648,13 @@
         <v>236121</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M23" s="7">
         <v>161</v>
@@ -6651,13 +6663,13 @@
         <v>236121</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6748,13 @@
         <v>289266</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M25" s="7">
         <v>367</v>
@@ -6751,13 +6763,13 @@
         <v>289266</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,13 +6797,13 @@
         <v>410122</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>482</v>
@@ -6800,13 +6812,13 @@
         <v>410122</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6885,13 +6897,13 @@
         <v>1613216</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M28" s="7">
         <v>2420</v>
@@ -6900,13 +6912,13 @@
         <v>1613216</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6934,13 +6946,13 @@
         <v>1271690</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M29" s="7">
         <v>1568</v>
@@ -6949,13 +6961,13 @@
         <v>1271690</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,7 +7021,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A0D184B-5386-424D-BABC-9D1FEA5CDD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA96761-4B3E-49D2-B674-30FD746CBF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C398E3E7-3AB8-4D02-A7CC-036FC780772D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3497F51C-930F-484D-A3A0-9EECF9D9827A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="231">
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2007 (Tasa respuesta: 49,87%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,10 +80,10 @@
     <t>57,44%</t>
   </si>
   <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>42,56%</t>
   </si>
   <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>54,63%</t>
   </si>
   <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
   </si>
   <si>
     <t>45,37%</t>
   </si>
   <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -128,19 +128,19 @@
     <t>56,74%</t>
   </si>
   <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
   </si>
   <si>
     <t>43,26%</t>
   </si>
   <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -149,19 +149,19 @@
     <t>56,55%</t>
   </si>
   <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
   </si>
   <si>
     <t>43,45%</t>
   </si>
   <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -170,19 +170,19 @@
     <t>41,78%</t>
   </si>
   <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
   </si>
   <si>
     <t>58,22%</t>
   </si>
   <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -191,19 +191,19 @@
     <t>46,35%</t>
   </si>
   <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
   </si>
   <si>
     <t>53,65%</t>
   </si>
   <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -212,19 +212,19 @@
     <t>63,51%</t>
   </si>
   <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
   </si>
   <si>
     <t>36,49%</t>
   </si>
   <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -233,31 +233,37 @@
     <t>47,27%</t>
   </si>
   <si>
-    <t>50,87%</t>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
   </si>
   <si>
     <t>52,73%</t>
   </si>
   <si>
-    <t>49,13%</t>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
   </si>
   <si>
     <t>53,81%</t>
   </si>
   <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -269,109 +275,103 @@
     <t>73,13%</t>
   </si>
   <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>26,87%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
   </si>
   <si>
     <t>56,63%</t>
   </si>
   <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
   </si>
   <si>
     <t>43,37%</t>
   </si>
   <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
   </si>
   <si>
     <t>69,06%</t>
   </si>
   <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
   </si>
   <si>
     <t>30,94%</t>
   </si>
   <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
   </si>
   <si>
     <t>63,12%</t>
   </si>
   <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
+    <t>69,55%</t>
   </si>
   <si>
     <t>36,88%</t>
   </si>
   <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
+    <t>30,45%</t>
   </si>
   <si>
     <t>54,49%</t>
   </si>
   <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
   </si>
   <si>
     <t>45,51%</t>
   </si>
   <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
   </si>
   <si>
     <t>63,72%</t>
   </si>
   <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
   </si>
   <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>65,6%</t>
@@ -380,13 +380,13 @@
     <t>62,03%</t>
   </si>
   <si>
-    <t>68,82%</t>
+    <t>69,11%</t>
   </si>
   <si>
     <t>34,4%</t>
   </si>
   <si>
-    <t>31,18%</t>
+    <t>30,89%</t>
   </si>
   <si>
     <t>37,97%</t>
@@ -395,19 +395,19 @@
     <t>65,1%</t>
   </si>
   <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2016 (Tasa respuesta: 50,28%)</t>
@@ -416,163 +416,157 @@
     <t>71,38%</t>
   </si>
   <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
   </si>
   <si>
     <t>73,81%</t>
   </si>
   <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
   </si>
   <si>
     <t>78,78%</t>
   </si>
   <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
   </si>
   <si>
     <t>69,9%</t>
   </si>
   <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
   </si>
   <si>
     <t>30,1%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
   </si>
   <si>
     <t>43,89%</t>
   </si>
   <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
+    <t>37,43%</t>
   </si>
   <si>
     <t>56,11%</t>
   </si>
   <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
+    <t>62,57%</t>
   </si>
   <si>
     <t>23,2%</t>
   </si>
   <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
   </si>
   <si>
     <t>76,8%</t>
   </si>
   <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
   </si>
   <si>
     <t>61,96%</t>
   </si>
   <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
   </si>
   <si>
     <t>38,04%</t>
   </si>
   <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
   </si>
   <si>
     <t>66,65%</t>
   </si>
   <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
   </si>
   <si>
     <t>33,35%</t>
   </si>
   <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
   </si>
   <si>
     <t>63,94%</t>
   </si>
   <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
   </si>
   <si>
     <t>36,06%</t>
   </si>
   <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
@@ -581,73 +575,73 @@
     <t>91,63%</t>
   </si>
   <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>8,37%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
   </si>
   <si>
     <t>58,55%</t>
   </si>
   <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
   </si>
   <si>
     <t>41,45%</t>
   </si>
   <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
   </si>
   <si>
     <t>62,46%</t>
   </si>
   <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
   </si>
   <si>
     <t>37,54%</t>
   </si>
   <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
   </si>
   <si>
     <t>69,39%</t>
   </si>
   <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
   </si>
   <si>
     <t>30,61%</t>
   </si>
   <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
   </si>
   <si>
     <t>39,17%</t>
@@ -656,13 +650,13 @@
     <t>34,02%</t>
   </si>
   <si>
-    <t>44,67%</t>
+    <t>44,73%</t>
   </si>
   <si>
     <t>60,83%</t>
   </si>
   <si>
-    <t>55,33%</t>
+    <t>55,27%</t>
   </si>
   <si>
     <t>65,98%</t>
@@ -671,73 +665,73 @@
     <t>41,25%</t>
   </si>
   <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
   </si>
   <si>
     <t>58,75%</t>
   </si>
   <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
   </si>
   <si>
     <t>60,5%</t>
   </si>
   <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>39,5%</t>
   </si>
   <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
   </si>
   <si>
     <t>41,36%</t>
   </si>
   <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
   </si>
   <si>
     <t>58,64%</t>
   </si>
   <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594F8457-3EAC-4A1E-BE41-F836E8208E98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF90AAE-9A9C-4C14-AE3F-17CF31F6B625}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2332,10 +2326,10 @@
         <v>63</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M25" s="7">
         <v>339</v>
@@ -2347,10 +2341,10 @@
         <v>63</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2372,13 @@
         <v>401156</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="M26" s="7">
         <v>384</v>
@@ -2393,13 +2387,13 @@
         <v>401156</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,13 +2472,13 @@
         <v>1790349</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M28" s="7">
         <v>1742</v>
@@ -2493,13 +2487,13 @@
         <v>1790349</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,13 +2521,13 @@
         <v>1536701</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M29" s="7">
         <v>1505</v>
@@ -2542,13 +2536,13 @@
         <v>1536701</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,7 +2596,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2626,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFEC524-EBEC-4380-BCB4-1D049A65CE65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87849999-3AE6-4A2C-9D38-707B6C29F01D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2643,7 +2637,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2900,13 +2894,13 @@
         <v>379281</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>345</v>
@@ -2915,13 +2909,13 @@
         <v>379281</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,13 +2943,13 @@
         <v>139334</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>130</v>
@@ -2964,13 +2958,13 @@
         <v>139334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3043,13 @@
         <v>192571</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>176</v>
@@ -3064,13 +3058,13 @@
         <v>192571</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3092,13 @@
         <v>147463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>140</v>
@@ -3113,13 +3107,13 @@
         <v>147463</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3192,13 @@
         <v>461163</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>424</v>
@@ -3213,13 +3207,13 @@
         <v>461163</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3241,13 @@
         <v>206647</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>195</v>
@@ -3262,13 +3256,13 @@
         <v>206647</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3341,13 @@
         <v>136664</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -3362,13 +3356,13 @@
         <v>136664</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3390,13 @@
         <v>79834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>78</v>
@@ -3411,13 +3405,13 @@
         <v>79834</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,7 +3983,7 @@
         <v>1157</v>
       </c>
       <c r="I29" s="7">
-        <v>1229377</v>
+        <v>1229378</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>120</v>
@@ -4004,7 +3998,7 @@
         <v>1157</v>
       </c>
       <c r="N29" s="7">
-        <v>1229377</v>
+        <v>1229378</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>120</v>
@@ -4038,7 +4032,7 @@
         <v>3264</v>
       </c>
       <c r="I30" s="7">
-        <v>3522353</v>
+        <v>3522354</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -4053,7 +4047,7 @@
         <v>3264</v>
       </c>
       <c r="N30" s="7">
-        <v>3522353</v>
+        <v>3522354</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -4067,7 +4061,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4091,7 +4085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A1984F-B3E5-4025-B255-DF1C5F895702}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3912317-D248-4CB6-835D-6D5A1C95B0CA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4830,7 +4824,7 @@
         <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -4845,7 +4839,7 @@
         <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4867,13 @@
         <v>121040</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -4888,13 +4882,13 @@
         <v>121040</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4967,13 @@
         <v>62742</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -4988,13 +4982,13 @@
         <v>62742</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5016,13 @@
         <v>207735</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>199</v>
@@ -5037,13 +5031,13 @@
         <v>207735</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5116,13 @@
         <v>420196</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M22" s="7">
         <v>394</v>
@@ -5137,13 +5131,13 @@
         <v>420196</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5165,13 @@
         <v>258007</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>240</v>
@@ -5186,13 +5180,13 @@
         <v>258007</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5265,13 @@
         <v>546503</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>503</v>
@@ -5286,13 +5280,13 @@
         <v>546503</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5314,13 @@
         <v>273480</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>246</v>
@@ -5335,13 +5329,13 @@
         <v>273480</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5414,13 @@
         <v>2242226</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>2123</v>
@@ -5435,13 +5429,13 @@
         <v>2242226</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5463,13 @@
         <v>1264446</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>1180</v>
@@ -5484,13 +5478,13 @@
         <v>1264446</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,7 +5538,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5568,7 +5562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB6BCC5-AB75-49C0-AAD7-A9DD05A9E2F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2AC800-B294-406A-90BE-9ABB7E634939}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5585,7 +5579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5705,13 +5699,13 @@
         <v>159937</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>323</v>
@@ -5720,13 +5714,13 @@
         <v>159937</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5748,13 @@
         <v>14609</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -5769,13 +5763,13 @@
         <v>14609</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5848,13 @@
         <v>250498</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>325</v>
@@ -5869,13 +5863,13 @@
         <v>250498</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5897,13 @@
         <v>177320</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>222</v>
@@ -5918,13 +5912,13 @@
         <v>177320</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +5997,13 @@
         <v>166825</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>255</v>
@@ -6018,13 +6012,13 @@
         <v>166825</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,31 +6043,31 @@
         <v>129</v>
       </c>
       <c r="I11" s="7">
-        <v>100280</v>
+        <v>100281</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>129</v>
       </c>
       <c r="N11" s="7">
-        <v>100280</v>
+        <v>100281</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,7 +6092,7 @@
         <v>384</v>
       </c>
       <c r="I12" s="7">
-        <v>267105</v>
+        <v>267106</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -6113,7 +6107,7 @@
         <v>384</v>
       </c>
       <c r="N12" s="7">
-        <v>267105</v>
+        <v>267106</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -6152,13 +6146,13 @@
         <v>227301</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>316</v>
@@ -6167,13 +6161,13 @@
         <v>227301</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,13 +6195,13 @@
         <v>100259</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>138</v>
@@ -6216,13 +6210,13 @@
         <v>100259</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6295,13 @@
         <v>65302</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
@@ -6316,13 +6310,13 @@
         <v>65302</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6344,13 @@
         <v>101421</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
@@ -6365,13 +6359,13 @@
         <v>101421</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6444,13 @@
         <v>92387</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>168</v>
@@ -6465,13 +6459,13 @@
         <v>92387</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6493,13 @@
         <v>131557</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>209</v>
@@ -6514,13 +6508,13 @@
         <v>131557</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6593,13 @@
         <v>361700</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M22" s="7">
         <v>509</v>
@@ -6614,13 +6608,13 @@
         <v>361700</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,13 +6642,13 @@
         <v>236121</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M23" s="7">
         <v>161</v>
@@ -6663,13 +6657,13 @@
         <v>236121</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6742,13 @@
         <v>289266</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M25" s="7">
         <v>367</v>
@@ -6763,13 +6757,13 @@
         <v>289266</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,13 +6791,13 @@
         <v>410122</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>482</v>
@@ -6812,13 +6806,13 @@
         <v>410122</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,13 +6891,13 @@
         <v>1613216</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M28" s="7">
         <v>2420</v>
@@ -6912,13 +6906,13 @@
         <v>1613216</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6940,13 @@
         <v>1271690</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M29" s="7">
         <v>1568</v>
@@ -6961,13 +6955,13 @@
         <v>1271690</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7021,7 +7015,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA96761-4B3E-49D2-B674-30FD746CBF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E95DFCE7-F87F-4A24-8D53-85542EA09DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3497F51C-930F-484D-A3A0-9EECF9D9827A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F3577CDC-89AF-4268-8962-EA7D5E4554A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="237">
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2007 (Tasa respuesta: 49,87%)</t>
   </si>
@@ -272,6 +272,24 @@
     <t>Población según si alguna vez le han realizado una citología vaginal en 2012 (Tasa respuesta: 50,16%)</t>
   </si>
   <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
     <t>73,13%</t>
   </si>
   <si>
@@ -308,22 +326,22 @@
     <t>49,27%</t>
   </si>
   <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
   </si>
   <si>
     <t>63,12%</t>
@@ -572,166 +590,166 @@
     <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
   </si>
   <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF90AAE-9A9C-4C14-AE3F-17CF31F6B625}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E4EAD1-48BB-4904-A094-41DE84141D27}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2620,7 +2638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87849999-3AE6-4A2C-9D38-707B6C29F01D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE1E826-AA5B-46D9-ACD7-B98AF572C7D6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2751,30 +2769,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="I4" s="7">
+        <v>200802</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="N4" s="7">
+        <v>200802</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,30 +2818,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="I5" s="7">
+        <v>79013</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="N5" s="7">
+        <v>79013</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,30 +2867,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="I6" s="7">
+        <v>279815</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="N6" s="7">
+        <v>279815</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2924,13 @@
         <v>379281</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
         <v>345</v>
@@ -2909,13 +2939,13 @@
         <v>379281</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,13 +2973,13 @@
         <v>139334</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M8" s="7">
         <v>130</v>
@@ -2958,13 +2988,13 @@
         <v>139334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3073,13 @@
         <v>192571</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
         <v>176</v>
@@ -3058,13 +3088,13 @@
         <v>192571</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3122,13 @@
         <v>147463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M11" s="7">
         <v>140</v>
@@ -3107,13 +3137,13 @@
         <v>147463</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,34 +3216,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="I13" s="7">
-        <v>461163</v>
+        <v>260361</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="N13" s="7">
-        <v>461163</v>
+        <v>260361</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,34 +3265,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="I14" s="7">
-        <v>206647</v>
+        <v>127634</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="N14" s="7">
-        <v>206647</v>
+        <v>127634</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,10 +3314,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>619</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>667810</v>
+        <v>387995</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3299,10 +3329,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>619</v>
+        <v>370</v>
       </c>
       <c r="N15" s="7">
-        <v>667810</v>
+        <v>387995</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3341,13 +3371,13 @@
         <v>136664</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -3356,13 +3386,13 @@
         <v>136664</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3420,13 @@
         <v>79834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>78</v>
@@ -3405,13 +3435,13 @@
         <v>79834</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3520,13 @@
         <v>152598</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>145</v>
@@ -3505,13 +3535,13 @@
         <v>152598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3569,13 @@
         <v>127433</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -3554,13 +3584,13 @@
         <v>127433</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3669,13 @@
         <v>438375</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>398</v>
@@ -3654,13 +3684,13 @@
         <v>438375</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3718,13 @@
         <v>249543</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>233</v>
@@ -3703,13 +3733,13 @@
         <v>249543</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3818,13 @@
         <v>532324</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>488</v>
@@ -3803,13 +3833,13 @@
         <v>532324</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3867,13 @@
         <v>279123</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>257</v>
@@ -3852,13 +3882,13 @@
         <v>279123</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3967,13 @@
         <v>2292976</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M28" s="7">
         <v>2107</v>
@@ -3952,13 +3982,13 @@
         <v>2292976</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,31 +4013,31 @@
         <v>1157</v>
       </c>
       <c r="I29" s="7">
-        <v>1229378</v>
+        <v>1229377</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M29" s="7">
         <v>1157</v>
       </c>
       <c r="N29" s="7">
-        <v>1229378</v>
+        <v>1229377</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,7 +4062,7 @@
         <v>3264</v>
       </c>
       <c r="I30" s="7">
-        <v>3522354</v>
+        <v>3522353</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -4047,7 +4077,7 @@
         <v>3264</v>
       </c>
       <c r="N30" s="7">
-        <v>3522354</v>
+        <v>3522353</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -4085,7 +4115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3912317-D248-4CB6-835D-6D5A1C95B0CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744E8370-4621-41AA-B8E2-0B9B2427583B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4102,7 +4132,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4222,13 +4252,13 @@
         <v>202807</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>195</v>
@@ -4237,13 +4267,13 @@
         <v>202807</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4301,13 @@
         <v>81308</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>78</v>
@@ -4286,13 +4316,13 @@
         <v>81308</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4401,13 @@
         <v>384163</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>362</v>
@@ -4386,13 +4416,13 @@
         <v>384163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4450,13 @@
         <v>136313</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>120</v>
@@ -4435,13 +4465,13 @@
         <v>136313</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4550,13 @@
         <v>261239</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>255</v>
@@ -4535,13 +4565,13 @@
         <v>261239</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4599,13 @@
         <v>70370</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>72</v>
@@ -4584,13 +4614,13 @@
         <v>70370</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4699,13 @@
         <v>269888</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>251</v>
@@ -4684,13 +4714,13 @@
         <v>269888</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4748,13 @@
         <v>116190</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -4733,13 +4763,13 @@
         <v>116190</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4848,13 @@
         <v>94689</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -4833,13 +4863,13 @@
         <v>94689</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4897,13 @@
         <v>121040</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -4882,13 +4912,13 @@
         <v>121040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4997,13 @@
         <v>62742</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -4982,13 +5012,13 @@
         <v>62742</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5046,13 @@
         <v>207735</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
         <v>199</v>
@@ -5031,13 +5061,13 @@
         <v>207735</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5146,13 @@
         <v>420196</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M22" s="7">
         <v>394</v>
@@ -5131,13 +5161,13 @@
         <v>420196</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5195,13 @@
         <v>258007</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M23" s="7">
         <v>240</v>
@@ -5180,13 +5210,13 @@
         <v>258007</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5295,13 @@
         <v>546503</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>503</v>
@@ -5280,13 +5310,13 @@
         <v>546503</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5344,13 @@
         <v>273480</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>246</v>
@@ -5329,13 +5359,13 @@
         <v>273480</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5444,13 @@
         <v>2242226</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>2123</v>
@@ -5429,13 +5459,13 @@
         <v>2242226</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5493,13 @@
         <v>1264446</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>1180</v>
@@ -5478,13 +5508,13 @@
         <v>1264446</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,7 +5592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2AC800-B294-406A-90BE-9ABB7E634939}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9930CB-AC9F-4018-B89E-4914D158E22C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5579,7 +5609,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5696,31 +5726,31 @@
         <v>323</v>
       </c>
       <c r="I4" s="7">
-        <v>159937</v>
+        <v>168954</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>323</v>
       </c>
       <c r="N4" s="7">
-        <v>159937</v>
+        <v>168954</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,31 +5775,31 @@
         <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>14609</v>
+        <v>17259</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
       </c>
       <c r="N5" s="7">
-        <v>14609</v>
+        <v>17259</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,7 +5824,7 @@
         <v>349</v>
       </c>
       <c r="I6" s="7">
-        <v>174546</v>
+        <v>186213</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -5809,7 +5839,7 @@
         <v>349</v>
       </c>
       <c r="N6" s="7">
-        <v>174546</v>
+        <v>186213</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -5845,31 +5875,31 @@
         <v>325</v>
       </c>
       <c r="I7" s="7">
-        <v>250498</v>
+        <v>232783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M7" s="7">
         <v>325</v>
       </c>
       <c r="N7" s="7">
-        <v>250498</v>
+        <v>232783</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,31 +5924,31 @@
         <v>222</v>
       </c>
       <c r="I8" s="7">
-        <v>177320</v>
+        <v>164518</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>222</v>
       </c>
       <c r="N8" s="7">
-        <v>177320</v>
+        <v>164518</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,7 +5973,7 @@
         <v>547</v>
       </c>
       <c r="I9" s="7">
-        <v>427818</v>
+        <v>397301</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -5958,7 +5988,7 @@
         <v>547</v>
       </c>
       <c r="N9" s="7">
-        <v>427818</v>
+        <v>397301</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -5994,31 +6024,31 @@
         <v>255</v>
       </c>
       <c r="I10" s="7">
-        <v>166825</v>
+        <v>155723</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>255</v>
       </c>
       <c r="N10" s="7">
-        <v>166825</v>
+        <v>155723</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,31 +6073,31 @@
         <v>129</v>
       </c>
       <c r="I11" s="7">
-        <v>100281</v>
+        <v>93371</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>129</v>
       </c>
       <c r="N11" s="7">
-        <v>100281</v>
+        <v>93371</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,7 +6122,7 @@
         <v>384</v>
       </c>
       <c r="I12" s="7">
-        <v>267106</v>
+        <v>249094</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -6107,7 +6137,7 @@
         <v>384</v>
       </c>
       <c r="N12" s="7">
-        <v>267106</v>
+        <v>249094</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -6143,31 +6173,31 @@
         <v>316</v>
       </c>
       <c r="I13" s="7">
-        <v>227301</v>
+        <v>290086</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>316</v>
       </c>
       <c r="N13" s="7">
-        <v>227301</v>
+        <v>290086</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,31 +6222,31 @@
         <v>138</v>
       </c>
       <c r="I14" s="7">
-        <v>100259</v>
+        <v>92055</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>138</v>
       </c>
       <c r="N14" s="7">
-        <v>100259</v>
+        <v>92055</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,7 +6271,7 @@
         <v>454</v>
       </c>
       <c r="I15" s="7">
-        <v>327560</v>
+        <v>382141</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6256,7 +6286,7 @@
         <v>454</v>
       </c>
       <c r="N15" s="7">
-        <v>327560</v>
+        <v>382141</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6292,31 +6322,31 @@
         <v>157</v>
       </c>
       <c r="I16" s="7">
-        <v>65302</v>
+        <v>59724</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
       </c>
       <c r="N16" s="7">
-        <v>65302</v>
+        <v>59724</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,31 +6371,31 @@
         <v>201</v>
       </c>
       <c r="I17" s="7">
-        <v>101421</v>
+        <v>90497</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
       </c>
       <c r="N17" s="7">
-        <v>101421</v>
+        <v>90497</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,7 +6420,7 @@
         <v>358</v>
       </c>
       <c r="I18" s="7">
-        <v>166723</v>
+        <v>150221</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -6405,7 +6435,7 @@
         <v>358</v>
       </c>
       <c r="N18" s="7">
-        <v>166723</v>
+        <v>150221</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -6441,31 +6471,31 @@
         <v>168</v>
       </c>
       <c r="I19" s="7">
-        <v>92387</v>
+        <v>86104</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>168</v>
       </c>
       <c r="N19" s="7">
-        <v>92387</v>
+        <v>86104</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,31 +6520,31 @@
         <v>209</v>
       </c>
       <c r="I20" s="7">
-        <v>131557</v>
+        <v>122973</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>209</v>
       </c>
       <c r="N20" s="7">
-        <v>131557</v>
+        <v>122973</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,7 +6569,7 @@
         <v>377</v>
       </c>
       <c r="I21" s="7">
-        <v>223944</v>
+        <v>209077</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -6554,7 +6584,7 @@
         <v>377</v>
       </c>
       <c r="N21" s="7">
-        <v>223944</v>
+        <v>209077</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -6590,31 +6620,31 @@
         <v>509</v>
       </c>
       <c r="I22" s="7">
-        <v>361700</v>
+        <v>337046</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M22" s="7">
         <v>509</v>
       </c>
       <c r="N22" s="7">
-        <v>361700</v>
+        <v>337046</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,31 +6669,31 @@
         <v>161</v>
       </c>
       <c r="I23" s="7">
-        <v>236121</v>
+        <v>319909</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M23" s="7">
         <v>161</v>
       </c>
       <c r="N23" s="7">
-        <v>236121</v>
+        <v>319909</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,7 +6718,7 @@
         <v>670</v>
       </c>
       <c r="I24" s="7">
-        <v>597821</v>
+        <v>656955</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -6703,7 +6733,7 @@
         <v>670</v>
       </c>
       <c r="N24" s="7">
-        <v>597821</v>
+        <v>656955</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -6739,31 +6769,31 @@
         <v>367</v>
       </c>
       <c r="I25" s="7">
-        <v>289266</v>
+        <v>240870</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M25" s="7">
         <v>367</v>
       </c>
       <c r="N25" s="7">
-        <v>289266</v>
+        <v>240870</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,31 +6818,31 @@
         <v>482</v>
       </c>
       <c r="I26" s="7">
-        <v>410122</v>
+        <v>335556</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M26" s="7">
         <v>482</v>
       </c>
       <c r="N26" s="7">
-        <v>410122</v>
+        <v>335556</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,7 +6867,7 @@
         <v>849</v>
       </c>
       <c r="I27" s="7">
-        <v>699388</v>
+        <v>576426</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -6852,7 +6882,7 @@
         <v>849</v>
       </c>
       <c r="N27" s="7">
-        <v>699388</v>
+        <v>576426</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -6888,31 +6918,31 @@
         <v>2420</v>
       </c>
       <c r="I28" s="7">
-        <v>1613216</v>
+        <v>1571289</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M28" s="7">
         <v>2420</v>
       </c>
       <c r="N28" s="7">
-        <v>1613216</v>
+        <v>1571289</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6937,31 +6967,31 @@
         <v>1568</v>
       </c>
       <c r="I29" s="7">
-        <v>1271690</v>
+        <v>1236139</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M29" s="7">
         <v>1568</v>
       </c>
       <c r="N29" s="7">
-        <v>1271690</v>
+        <v>1236139</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,7 +7016,7 @@
         <v>3988</v>
       </c>
       <c r="I30" s="7">
-        <v>2884906</v>
+        <v>2807428</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -7001,7 +7031,7 @@
         <v>3988</v>
       </c>
       <c r="N30" s="7">
-        <v>2884906</v>
+        <v>2807428</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
